--- a/results/minimal_seats-Australia.xlsx
+++ b/results/minimal_seats-Australia.xlsx
@@ -14,42 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Key</t>
   </si>
   <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t>Lib</t>
-  </si>
-  <si>
-    <t>Nat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN </t>
-  </si>
-  <si>
-    <t>CLP</t>
-  </si>
-  <si>
-    <t>G -</t>
-  </si>
-  <si>
-    <t>LNP</t>
-  </si>
-  <si>
-    <t>KAP</t>
-  </si>
-  <si>
-    <t>PUP</t>
-  </si>
-  <si>
-    <t>X -</t>
+    <t>Lab - Labor Party (Labor Party, Lab)</t>
+  </si>
+  <si>
+    <t>Lib - Liberal Party  (Liberal Party , Lib)</t>
+  </si>
+  <si>
+    <t>Nat - National Party (National Party, Nat)</t>
+  </si>
+  <si>
+    <t>no acronym - Other (Other, no acronym)</t>
+  </si>
+  <si>
+    <t>LN - Liberal-National Coalition (Liberal-National Coalition, LN)</t>
+  </si>
+  <si>
+    <t>CLP - Country Liberal Party (Country Liberal Party, CLP)</t>
+  </si>
+  <si>
+    <t>no acronym - Independent Candidates (Independent Candidates, no acronym)</t>
+  </si>
+  <si>
+    <t>G - Green (Green, G)</t>
+  </si>
+  <si>
+    <t>LNP - Liberal-National Party ( Queensland) (Liberal-National, LNP)</t>
+  </si>
+  <si>
+    <t>KAP - Katter's Australian Party (Katter's Australian Party, KAP)</t>
+  </si>
+  <si>
+    <t>PUP - Palmer United Party (Palmer United Party, PUP)</t>
+  </si>
+  <si>
+    <t>X - Xenophon Group (Xenophon Group, X)</t>
   </si>
   <si>
     <t>1993</t>
@@ -437,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,10 +483,13 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -498,9 +504,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -515,9 +521,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -529,9 +535,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -549,9 +555,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -562,16 +568,16 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -582,13 +588,13 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -599,22 +605,22 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -625,9 +631,6 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -635,18 +638,21 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -657,25 +663,25 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -686,19 +692,19 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
     </row>
